--- a/data/champ-scores.xlsx
+++ b/data/champ-scores.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Minh\LeagueCompRate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Minh\LeagueCompRate\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="261">
   <si>
     <t>Teamfight</t>
   </si>
@@ -800,13 +800,13 @@
     <t>Engage©</t>
   </si>
   <si>
-    <t>caiCa</t>
-  </si>
-  <si>
     <t>Mitigate ©</t>
   </si>
   <si>
     <t>Off ©</t>
+  </si>
+  <si>
+    <t>Change</t>
   </si>
 </sst>
 </file>
@@ -1135,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E149" workbookViewId="0">
-      <selection activeCell="N131" sqref="N131"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="O149" sqref="O149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1181,7 +1181,9 @@
       <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -1219,16 +1221,16 @@
         <v>30</v>
       </c>
       <c r="I2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K2">
         <v>10</v>
       </c>
       <c r="L2">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M2" t="s">
         <v>13</v>
@@ -1366,16 +1368,16 @@
         <v>52</v>
       </c>
       <c r="H5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I5">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L5">
         <v>15</v>
@@ -1422,13 +1424,13 @@
         <v>25</v>
       </c>
       <c r="J6">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M6" t="s">
         <v>15</v>
@@ -1469,16 +1471,16 @@
         <v>30</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
         <v>27</v>
@@ -1519,13 +1521,13 @@
         <v>30</v>
       </c>
       <c r="I8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L8">
         <v>20</v>
@@ -1572,13 +1574,13 @@
         <v>10</v>
       </c>
       <c r="J9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M9" t="s">
         <v>29</v>
@@ -1616,19 +1618,19 @@
         <v>40</v>
       </c>
       <c r="H10">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I10">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J10">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K10">
         <v>15</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M10" t="s">
         <v>29</v>
@@ -1672,7 +1674,7 @@
         <v>30</v>
       </c>
       <c r="J11">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K11">
         <v>15</v>
@@ -1722,7 +1724,7 @@
         <v>20</v>
       </c>
       <c r="J12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K12">
         <v>20</v>
@@ -1748,7 +1750,7 @@
         <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>258</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
         <v>40</v>
@@ -1763,19 +1765,19 @@
         <v>43</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I13">
         <v>35</v>
       </c>
       <c r="J13">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K13">
         <v>15</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M13" t="s">
         <v>19</v>
@@ -1813,19 +1815,19 @@
         <v>52</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I14">
         <v>30</v>
       </c>
       <c r="J14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K14">
         <v>15</v>
       </c>
       <c r="L14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M14" t="s">
         <v>19</v>
@@ -1866,16 +1868,16 @@
         <v>35</v>
       </c>
       <c r="I15">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J15">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K15">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L15">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M15" t="s">
         <v>26</v>
@@ -1907,19 +1909,19 @@
         <v>90</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I16">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J16">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M16" t="s">
         <v>17</v>
@@ -1951,19 +1953,19 @@
         <v>40</v>
       </c>
       <c r="H17">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I17">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J17">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K17">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M17" t="s">
         <v>29</v>
@@ -1995,13 +1997,13 @@
         <v>44</v>
       </c>
       <c r="H18">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I18">
         <v>30</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K18">
         <v>10</v>
@@ -2089,10 +2091,10 @@
         <v>15</v>
       </c>
       <c r="J20">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K20">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L20">
         <v>30</v>
@@ -2124,13 +2126,13 @@
         <v>40</v>
       </c>
       <c r="H21">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I21">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J21">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K21">
         <v>25</v>
@@ -2168,13 +2170,13 @@
         <v>52</v>
       </c>
       <c r="H22">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I22">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J22">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K22">
         <v>10</v>
@@ -2215,10 +2217,10 @@
         <v>30</v>
       </c>
       <c r="I23">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K23">
         <v>10</v>
@@ -2256,19 +2258,19 @@
         <v>49</v>
       </c>
       <c r="H24">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I24">
         <v>15</v>
       </c>
       <c r="J24">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M24" t="s">
         <v>29</v>
@@ -2300,7 +2302,7 @@
         <v>90</v>
       </c>
       <c r="H25">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I25">
         <v>15</v>
@@ -2312,7 +2314,7 @@
         <v>20</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M25" t="s">
         <v>13</v>
@@ -2344,19 +2346,19 @@
         <v>52</v>
       </c>
       <c r="H26">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I26">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J26">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K26">
         <v>10</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M26" t="s">
         <v>8</v>
@@ -2388,13 +2390,13 @@
         <v>43</v>
       </c>
       <c r="H27">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I27">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J27">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K27">
         <v>20</v>
@@ -2432,16 +2434,16 @@
         <v>90</v>
       </c>
       <c r="H28">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I28">
         <v>40</v>
       </c>
       <c r="J28">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K28">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L28">
         <v>15</v>
@@ -2476,19 +2478,19 @@
         <v>40</v>
       </c>
       <c r="H29">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I29">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J29">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K29">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L29">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M29" t="s">
         <v>29</v>
@@ -2523,16 +2525,16 @@
         <v>35</v>
       </c>
       <c r="I30">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J30">
         <v>10</v>
       </c>
       <c r="K30">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L30">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M30" t="s">
         <v>75</v>
@@ -2564,10 +2566,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J31">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K31">
         <v>5</v>
@@ -2655,13 +2657,13 @@
         <v>25</v>
       </c>
       <c r="J33">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K33">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M33" t="s">
         <v>17</v>
@@ -2693,19 +2695,19 @@
         <v>122</v>
       </c>
       <c r="H34">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I34">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J34">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K34">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M34" t="s">
         <v>75</v>
@@ -2734,13 +2736,13 @@
         <v>119</v>
       </c>
       <c r="H35">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I35">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J35">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K35">
         <v>5</v>
@@ -2781,13 +2783,13 @@
         <v>30</v>
       </c>
       <c r="I36">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J36">
         <v>10</v>
       </c>
       <c r="K36">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L36">
         <v>20</v>
@@ -2863,13 +2865,13 @@
         <v>43</v>
       </c>
       <c r="H38">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I38">
         <v>30</v>
       </c>
       <c r="J38">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K38">
         <v>15</v>
@@ -2989,13 +2991,13 @@
         <v>52</v>
       </c>
       <c r="H41">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J41">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K41">
         <v>20</v>
@@ -3033,19 +3035,19 @@
         <v>52</v>
       </c>
       <c r="H42">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I42">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J42">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K42">
         <v>5</v>
       </c>
       <c r="L42">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M42" t="s">
         <v>11</v>
@@ -3062,7 +3064,7 @@
         <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D43" t="s">
         <v>43</v>
@@ -3077,19 +3079,19 @@
         <v>43</v>
       </c>
       <c r="H43">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I43">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J43">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K43">
         <v>20</v>
       </c>
       <c r="L43">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M43" t="s">
         <v>19</v>
@@ -3121,19 +3123,19 @@
         <v>49</v>
       </c>
       <c r="H44">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I44">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J44">
         <v>40</v>
       </c>
       <c r="K44">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L44">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M44" t="s">
         <v>21</v>
@@ -3174,10 +3176,10 @@
         <v>10</v>
       </c>
       <c r="K45">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L45">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M45" t="s">
         <v>12</v>
@@ -3212,10 +3214,10 @@
         <v>10</v>
       </c>
       <c r="I46">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J46">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K46">
         <v>5</v>
@@ -3253,7 +3255,7 @@
         <v>40</v>
       </c>
       <c r="H47">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I47">
         <v>20</v>
@@ -3262,7 +3264,7 @@
         <v>5</v>
       </c>
       <c r="K47">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L47">
         <v>20</v>
@@ -3297,7 +3299,7 @@
         <v>40</v>
       </c>
       <c r="H48">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I48">
         <v>25</v>
@@ -3309,7 +3311,7 @@
         <v>20</v>
       </c>
       <c r="L48">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M48" t="s">
         <v>29</v>
@@ -3341,19 +3343,19 @@
         <v>40</v>
       </c>
       <c r="H49">
+        <v>33</v>
+      </c>
+      <c r="I49">
+        <v>10</v>
+      </c>
+      <c r="J49">
         <v>35</v>
       </c>
-      <c r="I49">
-        <v>15</v>
-      </c>
-      <c r="J49">
-        <v>30</v>
-      </c>
       <c r="K49">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L49">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M49" t="s">
         <v>29</v>
@@ -3385,10 +3387,10 @@
         <v>30</v>
       </c>
       <c r="I50">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J50">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K50">
         <v>20</v>
@@ -3429,13 +3431,13 @@
         <v>35</v>
       </c>
       <c r="I51">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J51">
         <v>30</v>
       </c>
       <c r="K51">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L51">
         <v>5</v>
@@ -3470,19 +3472,19 @@
         <v>49</v>
       </c>
       <c r="H52">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I52">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J52">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K52">
         <v>25</v>
       </c>
       <c r="L52">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M52" t="s">
         <v>21</v>
@@ -3517,16 +3519,16 @@
         <v>30</v>
       </c>
       <c r="I53">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J53">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K53">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L53">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M53" t="s">
         <v>27</v>
@@ -3558,19 +3560,19 @@
         <v>52</v>
       </c>
       <c r="H54">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I54">
         <v>30</v>
       </c>
       <c r="J54">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K54">
         <v>5</v>
       </c>
       <c r="L54">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M54" t="s">
         <v>8</v>
@@ -3602,13 +3604,13 @@
         <v>90</v>
       </c>
       <c r="H55">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I55">
         <v>30</v>
       </c>
       <c r="J55">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K55">
         <v>5</v>
@@ -3655,10 +3657,10 @@
         <v>30</v>
       </c>
       <c r="K56">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L56">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M56" t="s">
         <v>75</v>
@@ -3687,19 +3689,19 @@
         <v>52</v>
       </c>
       <c r="H57">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I57">
         <v>35</v>
       </c>
       <c r="J57">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K57">
         <v>15</v>
       </c>
       <c r="L57">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M57" t="s">
         <v>9</v>
@@ -3734,7 +3736,7 @@
         <v>35</v>
       </c>
       <c r="I58">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J58">
         <v>10</v>
@@ -3743,7 +3745,7 @@
         <v>15</v>
       </c>
       <c r="L58">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M58" t="s">
         <v>75</v>
@@ -3772,19 +3774,19 @@
         <v>119</v>
       </c>
       <c r="H59">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I59">
         <v>40</v>
       </c>
       <c r="J59">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K59">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L59">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M59" t="s">
         <v>8</v>
@@ -3819,16 +3821,16 @@
         <v>30</v>
       </c>
       <c r="I60">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J60">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K60">
         <v>15</v>
       </c>
       <c r="L60">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M60" t="s">
         <v>29</v>
@@ -3860,7 +3862,7 @@
         <v>20</v>
       </c>
       <c r="I61">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J61">
         <v>10</v>
@@ -3869,7 +3871,7 @@
         <v>5</v>
       </c>
       <c r="L61">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M61" t="s">
         <v>11</v>
@@ -3989,19 +3991,19 @@
         <v>52</v>
       </c>
       <c r="H64">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I64">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J64">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K64">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L64">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M64" t="s">
         <v>11</v>
@@ -4033,13 +4035,13 @@
         <v>52</v>
       </c>
       <c r="H65">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I65">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J65">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K65">
         <v>10</v>
@@ -4165,7 +4167,7 @@
         <v>43</v>
       </c>
       <c r="H68">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I68">
         <v>15</v>
@@ -4177,7 +4179,7 @@
         <v>20</v>
       </c>
       <c r="L68">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M68" t="s">
         <v>21</v>
@@ -4256,7 +4258,7 @@
         <v>25</v>
       </c>
       <c r="J70">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K70">
         <v>10</v>
@@ -4300,13 +4302,13 @@
         <v>30</v>
       </c>
       <c r="J71">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K71">
         <v>25</v>
       </c>
       <c r="L71">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M71" t="s">
         <v>27</v>
@@ -4382,19 +4384,19 @@
         <v>119</v>
       </c>
       <c r="H73">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I73">
+        <v>25</v>
+      </c>
+      <c r="J73">
         <v>35</v>
-      </c>
-      <c r="J73">
-        <v>5</v>
       </c>
       <c r="K73">
         <v>5</v>
       </c>
       <c r="L73">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M73" t="s">
         <v>9</v>
@@ -4426,19 +4428,19 @@
         <v>40</v>
       </c>
       <c r="H74">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I74">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J74">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K74">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L74">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M74" t="s">
         <v>29</v>
@@ -4505,7 +4507,7 @@
         <v>98</v>
       </c>
       <c r="F76" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G76" t="s">
         <v>52</v>
@@ -4514,13 +4516,13 @@
         <v>20</v>
       </c>
       <c r="I76">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J76">
         <v>10</v>
       </c>
       <c r="K76">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L76">
         <v>35</v>
@@ -4555,19 +4557,19 @@
         <v>49</v>
       </c>
       <c r="H77">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I77">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J77">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K77">
         <v>20</v>
       </c>
       <c r="L77">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M77" t="s">
         <v>19</v>
@@ -4599,7 +4601,7 @@
         <v>49</v>
       </c>
       <c r="H78">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I78">
         <v>15</v>
@@ -4608,10 +4610,10 @@
         <v>35</v>
       </c>
       <c r="K78">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L78">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M78" t="s">
         <v>21</v>
@@ -4643,16 +4645,16 @@
         <v>119</v>
       </c>
       <c r="H79">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I79">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J79">
+        <v>30</v>
+      </c>
+      <c r="K79">
         <v>5</v>
-      </c>
-      <c r="K79">
-        <v>15</v>
       </c>
       <c r="L79">
         <v>40</v>
@@ -4690,10 +4692,10 @@
         <v>30</v>
       </c>
       <c r="I80">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J80">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K80">
         <v>5</v>
@@ -4728,13 +4730,13 @@
         <v>49</v>
       </c>
       <c r="H81">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I81">
         <v>20</v>
       </c>
       <c r="J81">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K81">
         <v>25</v>
@@ -4813,13 +4815,13 @@
         <v>44</v>
       </c>
       <c r="H83">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I83">
         <v>40</v>
       </c>
       <c r="J83">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K83">
         <v>10</v>
@@ -4860,13 +4862,13 @@
         <v>30</v>
       </c>
       <c r="I84">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J84">
         <v>15</v>
       </c>
       <c r="K84">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L84">
         <v>15</v>
@@ -4901,19 +4903,19 @@
         <v>119</v>
       </c>
       <c r="H85">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I85">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J85">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K85">
         <v>15</v>
       </c>
       <c r="L85">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M85" t="s">
         <v>12</v>
@@ -4945,19 +4947,19 @@
         <v>49</v>
       </c>
       <c r="H86">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I86">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J86">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K86">
         <v>25</v>
       </c>
       <c r="L86">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M86" t="s">
         <v>26</v>
@@ -4989,19 +4991,19 @@
         <v>185</v>
       </c>
       <c r="H87">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I87">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J87">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K87">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L87">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M87" t="s">
         <v>15</v>
@@ -5077,13 +5079,13 @@
         <v>119</v>
       </c>
       <c r="H89">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I89">
         <v>20</v>
       </c>
       <c r="J89">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K89">
         <v>10</v>
@@ -5121,19 +5123,19 @@
         <v>90</v>
       </c>
       <c r="H90">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I90">
         <v>40</v>
       </c>
       <c r="J90">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K90">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L90">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M90" t="s">
         <v>8</v>
@@ -5165,16 +5167,16 @@
         <v>52</v>
       </c>
       <c r="H91">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I91">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J91">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K91">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L91">
         <v>15</v>
@@ -5212,10 +5214,10 @@
         <v>20</v>
       </c>
       <c r="I92">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J92">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K92">
         <v>15</v>
@@ -5250,19 +5252,19 @@
         <v>90</v>
       </c>
       <c r="H93">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I93">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J93">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K93">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L93">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M93" t="s">
         <v>19</v>
@@ -5294,19 +5296,19 @@
         <v>119</v>
       </c>
       <c r="H94">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I94">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J94">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K94">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L94">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M94" t="s">
         <v>15</v>
@@ -5338,13 +5340,13 @@
         <v>90</v>
       </c>
       <c r="H95">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I95">
         <v>40</v>
       </c>
       <c r="J95">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K95">
         <v>10</v>
@@ -5385,10 +5387,10 @@
         <v>25</v>
       </c>
       <c r="I96">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J96">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K96">
         <v>5</v>
@@ -5426,13 +5428,13 @@
         <v>119</v>
       </c>
       <c r="H97">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I97">
         <v>35</v>
       </c>
       <c r="J97">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K97">
         <v>10</v>
@@ -5470,13 +5472,13 @@
         <v>90</v>
       </c>
       <c r="H98">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I98">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J98">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K98">
         <v>5</v>
@@ -5514,16 +5516,16 @@
         <v>44</v>
       </c>
       <c r="H99">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I99">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J99">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K99">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L99">
         <v>25</v>
@@ -5561,16 +5563,16 @@
         <v>30</v>
       </c>
       <c r="I100">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J100">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K100">
         <v>15</v>
       </c>
       <c r="L100">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M100" t="s">
         <v>27</v>
@@ -5599,19 +5601,19 @@
         <v>200</v>
       </c>
       <c r="H101">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I101">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J101">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K101">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L101">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M101" t="s">
         <v>15</v>
@@ -5640,19 +5642,19 @@
         <v>40</v>
       </c>
       <c r="H102">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I102">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J102">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K102">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L102">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M102" t="s">
         <v>29</v>
@@ -5687,13 +5689,13 @@
         <v>25</v>
       </c>
       <c r="I103">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J103">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K103">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L103">
         <v>35</v>
@@ -5728,19 +5730,19 @@
         <v>90</v>
       </c>
       <c r="H104">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I104">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J104">
         <v>10</v>
       </c>
       <c r="K104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L104">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M104" t="s">
         <v>8</v>
@@ -5772,19 +5774,19 @@
         <v>52</v>
       </c>
       <c r="H105">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I105">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J105">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K105">
         <v>5</v>
       </c>
       <c r="L105">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M105" t="s">
         <v>17</v>
@@ -5816,19 +5818,19 @@
         <v>90</v>
       </c>
       <c r="H106">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I106">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J106">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K106">
         <v>25</v>
       </c>
       <c r="L106">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M106" t="s">
         <v>13</v>
@@ -5860,19 +5862,19 @@
         <v>90</v>
       </c>
       <c r="H107">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I107">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J107">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="K107">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L107">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M107" t="s">
         <v>75</v>
@@ -5945,13 +5947,13 @@
         <v>49</v>
       </c>
       <c r="H109">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I109">
         <v>15</v>
       </c>
       <c r="J109">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K109">
         <v>15</v>
@@ -5989,10 +5991,10 @@
         <v>119</v>
       </c>
       <c r="H110">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I110">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J110">
         <v>15</v>
@@ -6001,7 +6003,7 @@
         <v>5</v>
       </c>
       <c r="L110">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M110" t="s">
         <v>11</v>
@@ -6077,19 +6079,19 @@
         <v>49</v>
       </c>
       <c r="H112">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I112">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J112">
         <v>35</v>
       </c>
       <c r="K112">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L112">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M112" t="s">
         <v>21</v>
@@ -6118,13 +6120,13 @@
         <v>49</v>
       </c>
       <c r="H113">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I113">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J113">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K113">
         <v>20</v>
@@ -6162,16 +6164,16 @@
         <v>216</v>
       </c>
       <c r="H114">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I114">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J114">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K114">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L114">
         <v>25</v>
@@ -6209,13 +6211,13 @@
         <v>25</v>
       </c>
       <c r="I115">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J115">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K115">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L115">
         <v>10</v>
@@ -6253,16 +6255,16 @@
         <v>15</v>
       </c>
       <c r="I116">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J116">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K116">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L116">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M116" t="s">
         <v>17</v>
@@ -6294,13 +6296,13 @@
         <v>40</v>
       </c>
       <c r="H117">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I117">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J117">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K117">
         <v>30</v>
@@ -6426,19 +6428,19 @@
         <v>43</v>
       </c>
       <c r="H120">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I120">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J120">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K120">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L120">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M120" t="s">
         <v>75</v>
@@ -6467,10 +6469,10 @@
         <v>43</v>
       </c>
       <c r="H121">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I121">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J121">
         <v>30</v>
@@ -6511,7 +6513,7 @@
         <v>40</v>
       </c>
       <c r="H122">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I122">
         <v>20</v>
@@ -6520,7 +6522,7 @@
         <v>25</v>
       </c>
       <c r="K122">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L122">
         <v>10</v>
@@ -6552,19 +6554,19 @@
         <v>228</v>
       </c>
       <c r="H123">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I123">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J123">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K123">
         <v>10</v>
       </c>
       <c r="L123">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M123" t="s">
         <v>13</v>
@@ -6596,19 +6598,19 @@
         <v>119</v>
       </c>
       <c r="H124">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I124">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J124">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K124">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L124">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M124" t="s">
         <v>9</v>
@@ -6643,16 +6645,16 @@
         <v>20</v>
       </c>
       <c r="I125">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J125">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K125">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L125">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M125" t="s">
         <v>25</v>
@@ -6687,16 +6689,16 @@
         <v>35</v>
       </c>
       <c r="I126">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J126">
         <v>35</v>
       </c>
       <c r="K126">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L126">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M126" t="s">
         <v>29</v>
@@ -6725,19 +6727,19 @@
         <v>119</v>
       </c>
       <c r="H127">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I127">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J127">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K127">
         <v>5</v>
       </c>
       <c r="L127">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M127" t="s">
         <v>13</v>
@@ -6769,7 +6771,7 @@
         <v>43</v>
       </c>
       <c r="H128">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I128">
         <v>15</v>
@@ -6778,7 +6780,7 @@
         <v>10</v>
       </c>
       <c r="K128">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L128">
         <v>35</v>
@@ -6813,7 +6815,7 @@
         <v>40</v>
       </c>
       <c r="H129">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I129">
         <v>10</v>
@@ -6822,7 +6824,7 @@
         <v>30</v>
       </c>
       <c r="K129">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L129">
         <v>5</v>
@@ -6857,19 +6859,19 @@
         <v>43</v>
       </c>
       <c r="H130">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I130">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J130">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K130">
         <v>5</v>
       </c>
       <c r="L130">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M130" t="s">
         <v>29</v>
@@ -6904,13 +6906,13 @@
         <v>20</v>
       </c>
       <c r="J131">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K131">
         <v>20</v>
       </c>
       <c r="L131">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M131" t="s">
         <v>25</v>
@@ -6945,16 +6947,16 @@
         <v>35</v>
       </c>
       <c r="I132">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J132">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K132">
         <v>35</v>
       </c>
       <c r="L132">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M132" t="s">
         <v>23</v>
@@ -6986,19 +6988,19 @@
         <v>44</v>
       </c>
       <c r="H133">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I133">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J133">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K133">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L133">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M133" t="s">
         <v>11</v>
@@ -7030,13 +7032,13 @@
         <v>49</v>
       </c>
       <c r="H134">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I134">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J134">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K134">
         <v>25</v>
@@ -7077,16 +7079,16 @@
         <v>35</v>
       </c>
       <c r="I135">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J135">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K135">
         <v>10</v>
       </c>
       <c r="L135">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M135" t="s">
         <v>27</v>
@@ -7118,19 +7120,19 @@
         <v>90</v>
       </c>
       <c r="H136">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I136">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J136">
         <v>10</v>
       </c>
       <c r="K136">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L136">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M136" t="s">
         <v>13</v>
@@ -7206,7 +7208,7 @@
         <v>49</v>
       </c>
       <c r="H138">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I138">
         <v>10</v>
@@ -7215,7 +7217,7 @@
         <v>25</v>
       </c>
       <c r="K138">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L138">
         <v>10</v>
@@ -7247,13 +7249,13 @@
         <v>40</v>
       </c>
       <c r="H139">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I139">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J139">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K139">
         <v>35</v>
@@ -7291,16 +7293,16 @@
         <v>195</v>
       </c>
       <c r="H140">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I140">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J140">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K140">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L140">
         <v>30</v>
@@ -7379,16 +7381,16 @@
         <v>90</v>
       </c>
       <c r="H142">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I142">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J142">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K142">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L142">
         <v>40</v>
@@ -7420,7 +7422,7 @@
         <v>49</v>
       </c>
       <c r="H143">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I143">
         <v>10</v>
@@ -7429,7 +7431,7 @@
         <v>40</v>
       </c>
       <c r="K143">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L143">
         <v>5</v>
@@ -7461,19 +7463,19 @@
         <v>52</v>
       </c>
       <c r="H144">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I144">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J144">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K144">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L144">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M144" t="s">
         <v>15</v>
@@ -7514,10 +7516,10 @@
         <v>5</v>
       </c>
       <c r="K145">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L145">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M145" t="s">
         <v>8</v>
@@ -7552,13 +7554,13 @@
         <v>35</v>
       </c>
       <c r="I146">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J146">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K146">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L146">
         <v>10</v>
@@ -7593,7 +7595,7 @@
         <v>49</v>
       </c>
       <c r="H147">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I147">
         <v>10</v>
@@ -7602,7 +7604,7 @@
         <v>30</v>
       </c>
       <c r="K147">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L147">
         <v>10</v>
@@ -7634,10 +7636,10 @@
         <v>40</v>
       </c>
       <c r="H148">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I148">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J148">
         <v>10</v>
@@ -7678,13 +7680,13 @@
         <v>49</v>
       </c>
       <c r="H149">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I149">
         <v>10</v>
       </c>
       <c r="J149">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K149">
         <v>30</v>
